--- a/matlab_code/tests/ensembleFxns/testFiles/toy_model1_coef.xlsx
+++ b/matlab_code/tests/ensembleFxns/testFiles/toy_model1_coef.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="12"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="general" sheetId="1" state="visible" r:id="rId2"/>
@@ -32,330 +32,336 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="108">
-  <si>
-    <t>General Reaction and Sampling Platform (GRASP)</t>
-  </si>
-  <si>
-    <t>Unnamed: 1</t>
-  </si>
-  <si>
-    <t>Model name</t>
-  </si>
-  <si>
-    <t>toy_model1</t>
-  </si>
-  <si>
-    <t>Sampling mode (ORACLE, rejection, rejectionSMC, SMC, MCMC-SMC)</t>
-  </si>
-  <si>
-    <t>ORACLE</t>
-  </si>
-  <si>
-    <t>NLP solver (NLOPT, OPTI, FMINCON (default))</t>
-  </si>
-  <si>
-    <t>FMINCON</t>
-  </si>
-  <si>
-    <t>Number of exp. conditions (excluding reference state)</t>
-  </si>
-  <si>
-    <t>Number of model structures</t>
-  </si>
-  <si>
-    <t>Number of particles</t>
-  </si>
-  <si>
-    <t>Parallel mode (ON = 1; OFF = 0)</t>
-  </si>
-  <si>
-    <t>Number of cores (ignored if Parallel mode disabled)</t>
-  </si>
-  <si>
-    <t>Percentile of alive particles for SMC (e.g., 20, 50, etc.) (only needed for rejectionSMC, SMC, MCMC-SMC)</t>
-  </si>
-  <si>
-    <t>Compute robust fluxes (ON = 1; OFF = 0)</t>
-  </si>
-  <si>
-    <t>Compute thermodynamics (ON = 1; OFF = 0)</t>
-  </si>
-  <si>
-    <t>Inicial tolerance (OPTIONAL)</t>
-  </si>
-  <si>
-    <t>Final tolerance (in the case of ORACLE, set to 1)</t>
-  </si>
-  <si>
-    <t>rxn ID</t>
-  </si>
-  <si>
-    <t>m1</t>
-  </si>
-  <si>
-    <t>m2</t>
-  </si>
-  <si>
-    <t>m3</t>
-  </si>
-  <si>
-    <t>m4</t>
-  </si>
-  <si>
-    <t>m5</t>
-  </si>
-  <si>
-    <t>m6</t>
-  </si>
-  <si>
-    <t>m7</t>
-  </si>
-  <si>
-    <t>m8</t>
-  </si>
-  <si>
-    <t>m9</t>
-  </si>
-  <si>
-    <t>m10</t>
-  </si>
-  <si>
-    <t>m11</t>
-  </si>
-  <si>
-    <t>m12</t>
-  </si>
-  <si>
-    <t>m13</t>
-  </si>
-  <si>
-    <t>m14</t>
-  </si>
-  <si>
-    <t>m15</t>
-  </si>
-  <si>
-    <t>m16</t>
-  </si>
-  <si>
-    <t>m17</t>
-  </si>
-  <si>
-    <t>m18</t>
-  </si>
-  <si>
-    <t>m19</t>
-  </si>
-  <si>
-    <t>m20</t>
-  </si>
-  <si>
-    <t>r1</t>
-  </si>
-  <si>
-    <t>r2</t>
-  </si>
-  <si>
-    <t>r3</t>
-  </si>
-  <si>
-    <t>r4</t>
-  </si>
-  <si>
-    <t>r5</t>
-  </si>
-  <si>
-    <t>r6</t>
-  </si>
-  <si>
-    <t>r7</t>
-  </si>
-  <si>
-    <t>r8</t>
-  </si>
-  <si>
-    <t>r9</t>
-  </si>
-  <si>
-    <t>r10</t>
-  </si>
-  <si>
-    <t>r11</t>
-  </si>
-  <si>
-    <t>r12</t>
-  </si>
-  <si>
-    <t>r13</t>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>Metabolite name</t>
-  </si>
-  <si>
-    <t>balanced?</t>
-  </si>
-  <si>
-    <t>active?</t>
-  </si>
-  <si>
-    <t>fixed?</t>
-  </si>
-  <si>
-    <t>measured?</t>
-  </si>
-  <si>
-    <t>reaction name</t>
-  </si>
-  <si>
-    <t>transportRxn?</t>
-  </si>
-  <si>
-    <t>modelled?</t>
-  </si>
-  <si>
-    <t>isoenzymes</t>
-  </si>
-  <si>
-    <t>met</t>
-  </si>
-  <si>
-    <t>rxn</t>
-  </si>
-  <si>
-    <t>∆Gr'_min (kJ/mol)</t>
-  </si>
-  <si>
-    <t>∆Gr'_max (kJ/mol)</t>
-  </si>
-  <si>
-    <t>min (M)</t>
-  </si>
-  <si>
-    <t>max (M)</t>
-  </si>
-  <si>
-    <t>Fluxes (umol/gCDW/h)</t>
-  </si>
-  <si>
-    <t>vref_mean</t>
-  </si>
-  <si>
-    <t>vref_std</t>
-  </si>
-  <si>
-    <t>enzyme/rxn</t>
-  </si>
-  <si>
-    <t>MBo10_LB2</t>
-  </si>
-  <si>
-    <t>MBo10_meas2</t>
-  </si>
-  <si>
-    <t>MBo10_UB2</t>
-  </si>
-  <si>
-    <t>MBo10_LB2 (M)</t>
-  </si>
-  <si>
-    <t>MBo10_UB2 (M)</t>
-  </si>
-  <si>
-    <t>reaction ID</t>
-  </si>
-  <si>
-    <t>kinetic mechanism</t>
-  </si>
-  <si>
-    <t>substrate order</t>
-  </si>
-  <si>
-    <t>product order</t>
-  </si>
-  <si>
-    <t>promiscuous</t>
-  </si>
-  <si>
-    <t>inhibitors</t>
-  </si>
-  <si>
-    <t>activators</t>
-  </si>
-  <si>
-    <t>negative effector</t>
-  </si>
-  <si>
-    <t>positive effector</t>
-  </si>
-  <si>
-    <t>allosteric</t>
-  </si>
-  <si>
-    <t>subunits</t>
-  </si>
-  <si>
-    <t>comments</t>
-  </si>
-  <si>
-    <t>substrateInhibOrderedBiBi</t>
-  </si>
-  <si>
-    <t>m3 m6</t>
-  </si>
-  <si>
-    <t>m5 m14</t>
-  </si>
-  <si>
-    <t>UniUniPromiscuous</t>
-  </si>
-  <si>
-    <t>m5 m6</t>
-  </si>
-  <si>
-    <t>m7 m10</t>
-  </si>
-  <si>
-    <t>r2 r5</t>
-  </si>
-  <si>
-    <t>OrdPromiscCompInhibIndep</t>
-  </si>
-  <si>
-    <t>m1 m7 m1 m10</t>
-  </si>
-  <si>
-    <t>m8 m11 m12 m12</t>
-  </si>
-  <si>
-    <t>r3 r6</t>
-  </si>
-  <si>
-    <t>orderedBiBi</t>
-  </si>
-  <si>
-    <t>m2 m8 </t>
-  </si>
-  <si>
-    <t>m9 m13</t>
-  </si>
-  <si>
-    <t>massAction</t>
-  </si>
-  <si>
-    <t>1.5*m4</t>
-  </si>
-  <si>
-    <t>1.8*m6</t>
-  </si>
-  <si>
-    <t>diffusion</t>
-  </si>
-  <si>
-    <t>fixedExchange</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="110">
+  <si>
+    <t xml:space="preserve">General Reaction and Sampling Platform (GRASP)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unnamed: 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Model name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">toy_model1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sampling mode (ORACLE, rejection, rejectionSMC, SMC, MCMC-SMC)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ORACLE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NLP solver (NLOPT, OPTI, FMINCON (default))</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FMINCON</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LP solver (linprog or gurobi)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gurobi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of exp. conditions (excluding reference state)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of model structures</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of particles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parallel mode (ON = 1; OFF = 0)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of cores (ignored if Parallel mode disabled)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Percentile of alive particles for SMC (e.g., 20, 50, etc.) (only needed for rejectionSMC, SMC, MCMC-SMC)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Compute robust fluxes (ON = 1; OFF = 0)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Compute thermodynamics (ON = 1; OFF = 0)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inicial tolerance (OPTIONAL)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Final tolerance (in the case of ORACLE, set to 1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rxn ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Metabolite name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">balanced?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">active?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fixed?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">measured?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reaction name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">transportRxn?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">modelled?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">isoenzymes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">met</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rxn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">∆Gr'_min (kJ/mol)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">∆Gr'_max (kJ/mol)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">min (M)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">max (M)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fluxes (umol/gCDW/h)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vref_mean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vref_std</t>
+  </si>
+  <si>
+    <t xml:space="preserve">enzyme/rxn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MBo10_LB2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MBo10_meas2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MBo10_UB2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MBo10_LB2 (M)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MBo10_UB2 (M)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reaction ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kinetic mechanism</t>
+  </si>
+  <si>
+    <t xml:space="preserve">substrate order</t>
+  </si>
+  <si>
+    <t xml:space="preserve">product order</t>
+  </si>
+  <si>
+    <t xml:space="preserve">promiscuous</t>
+  </si>
+  <si>
+    <t xml:space="preserve">inhibitors</t>
+  </si>
+  <si>
+    <t xml:space="preserve">activators</t>
+  </si>
+  <si>
+    <t xml:space="preserve">negative effector</t>
+  </si>
+  <si>
+    <t xml:space="preserve">positive effector</t>
+  </si>
+  <si>
+    <t xml:space="preserve">allosteric</t>
+  </si>
+  <si>
+    <t xml:space="preserve">subunits</t>
+  </si>
+  <si>
+    <t xml:space="preserve">comments</t>
+  </si>
+  <si>
+    <t xml:space="preserve">substrateInhibOrderedBiBi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m3 m6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m5 m14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UniUniPromiscuous</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m5 m6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m7 m10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r2 r5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OrdPromiscCompInhibIndep</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m1 m7 m1 m10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m8 m11 m12 m12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r3 r6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">orderedBiBi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m2 m8 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">m9 m13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">massAction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5*m4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8*m6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">diffusion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fixedExchange</t>
   </si>
 </sst>
 </file>
@@ -363,7 +369,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="GENERAL"/>
+    <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -446,13 +452,17 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -488,15 +498,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N42" activeCellId="0" sqref="N42"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5:B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -531,62 +541,62 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="0" t="n">
-        <v>0</v>
+      <c r="B5" s="0" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B6" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B7" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="0" t="n">
         <v>5</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="0" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B9" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="B10" s="0" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" s="0" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>1</v>
@@ -594,21 +604,29 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B14" s="0" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" s="0" t="n">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -623,29 +641,29 @@
   </sheetPr>
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D1" activeCellId="1" sqref="A5:B5 D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>-22.0149320730417</v>
@@ -656,7 +674,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0.285369137837419</v>
@@ -667,7 +685,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0.0578197638950879</v>
@@ -678,7 +696,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>-0.00439408376660814</v>
@@ -689,7 +707,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>6.84865633256387</v>
@@ -700,7 +718,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>-0.00242684925806694</v>
@@ -712,7 +730,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -727,32 +745,32 @@
   </sheetPr>
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="A5:B5 A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>0.938745891927311</v>
@@ -766,7 +784,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0.918129270809538</v>
@@ -780,7 +798,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0.979330692978098</v>
@@ -794,7 +812,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0.870960152966783</v>
@@ -808,7 +826,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>0.99</v>
@@ -822,7 +840,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>0.99</v>
@@ -836,7 +854,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0.99</v>
@@ -850,7 +868,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0.99</v>
@@ -864,7 +882,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0.99</v>
@@ -878,7 +896,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0.99</v>
@@ -892,7 +910,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>0.99</v>
@@ -906,7 +924,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0.99</v>
@@ -920,7 +938,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>0.99</v>
@@ -935,7 +953,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -950,32 +968,32 @@
   </sheetPr>
   <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="A5:B5 A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>73</v>
-      </c>
       <c r="D1" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>0.729362608113343</v>
@@ -989,7 +1007,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0.99</v>
@@ -1003,7 +1021,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0.99</v>
@@ -1017,7 +1035,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0.99</v>
@@ -1031,7 +1049,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>0</v>
@@ -1045,7 +1063,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>0.985171462369796</v>
@@ -1059,7 +1077,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0.875198318353468</v>
@@ -1073,7 +1091,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0.992232956019871</v>
@@ -1087,7 +1105,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0.87219768970854</v>
@@ -1101,7 +1119,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0.997064475108798</v>
@@ -1115,7 +1133,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>0</v>
@@ -1129,7 +1147,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0.935839477601494</v>
@@ -1143,7 +1161,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>0.99</v>
@@ -1157,7 +1175,7 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>0.99</v>
@@ -1171,7 +1189,7 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>0.864112211147392</v>
@@ -1185,7 +1203,7 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>0.99</v>
@@ -1199,7 +1217,7 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>0.99</v>
@@ -1213,7 +1231,7 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>0.980827889050257</v>
@@ -1227,7 +1245,7 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>0.983205843276524</v>
@@ -1241,7 +1259,7 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>0.986809036820528</v>
@@ -1256,7 +1274,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -1271,74 +1289,74 @@
   </sheetPr>
   <dimension ref="A1:L14"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C8" activeCellId="0" sqref="C8"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C8" activeCellId="1" sqref="A5:B5 C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.6720647773279"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="31.5991902834008"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="43.7044534412956"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="42.5263157894737"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="33.1012145748988"/>
-    <col collapsed="false" hidden="false" max="7" min="6" style="0" width="13.9271255060729"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="31.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="43.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="42.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="33.1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="6" style="0" width="13.93"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="8" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>80</v>
+        <v>81</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>82</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="J2" s="0" t="n">
         <v>0</v>
@@ -1349,19 +1367,19 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="J3" s="0" t="n">
         <v>0</v>
@@ -1372,22 +1390,22 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="J4" s="0" t="n">
         <v>0</v>
@@ -1398,16 +1416,16 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>101</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>102</v>
+        <v>103</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>104</v>
       </c>
       <c r="J5" s="0" t="n">
         <v>0</v>
@@ -1418,19 +1436,19 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="J6" s="0" t="n">
         <v>0</v>
@@ -1441,22 +1459,22 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="J7" s="0" t="n">
         <v>0</v>
@@ -1467,16 +1485,16 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="J8" s="0" t="n">
         <v>0</v>
@@ -1487,10 +1505,10 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="J9" s="0" t="n">
         <v>0</v>
@@ -1501,10 +1519,10 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="J10" s="0" t="n">
         <v>0</v>
@@ -1515,10 +1533,10 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="J11" s="0" t="n">
         <v>0</v>
@@ -1529,10 +1547,10 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="J12" s="0" t="n">
         <v>0</v>
@@ -1543,10 +1561,10 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="J13" s="0" t="n">
         <v>0</v>
@@ -1557,10 +1575,10 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="J14" s="0" t="n">
         <v>0</v>
@@ -1572,7 +1590,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -1587,83 +1605,83 @@
   </sheetPr>
   <dimension ref="A1:U14"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G8" activeCellId="0" sqref="G8"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G8" activeCellId="1" sqref="A5:B5 G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>0</v>
@@ -1728,7 +1746,7 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0</v>
@@ -1793,7 +1811,7 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>-1</v>
@@ -1858,7 +1876,7 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0</v>
@@ -1923,7 +1941,7 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>0</v>
@@ -1988,7 +2006,7 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>-1</v>
@@ -2053,7 +2071,7 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0</v>
@@ -2118,7 +2136,7 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0</v>
@@ -2183,7 +2201,7 @@
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0</v>
@@ -2248,7 +2266,7 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0</v>
@@ -2313,7 +2331,7 @@
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>0</v>
@@ -2378,7 +2396,7 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0</v>
@@ -2443,7 +2461,7 @@
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>0</v>
@@ -2509,7 +2527,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -2524,41 +2542,41 @@
   </sheetPr>
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D17" activeCellId="0" sqref="D17"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D17" activeCellId="1" sqref="A5:B5 D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>19</v>
+        <v>21</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>0</v>
@@ -2575,10 +2593,10 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>20</v>
+        <v>22</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>22</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>0</v>
@@ -2595,10 +2613,10 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>21</v>
+        <v>23</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>23</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>0</v>
@@ -2615,10 +2633,10 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>22</v>
+        <v>24</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>24</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>0</v>
@@ -2635,10 +2653,10 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>23</v>
+        <v>25</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>25</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>1</v>
@@ -2655,10 +2673,10 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>24</v>
+        <v>26</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>26</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>1</v>
@@ -2675,10 +2693,10 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>25</v>
+        <v>27</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>27</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>1</v>
@@ -2695,10 +2713,10 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>28</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>1</v>
@@ -2715,10 +2733,10 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>27</v>
+        <v>29</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>29</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>1</v>
@@ -2735,10 +2753,10 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>28</v>
+        <v>30</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>30</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>1</v>
@@ -2755,10 +2773,10 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>29</v>
+        <v>31</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>31</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>1</v>
@@ -2775,10 +2793,10 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>32</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>0</v>
@@ -2795,10 +2813,10 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>31</v>
+        <v>33</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>33</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>0</v>
@@ -2815,10 +2833,10 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>32</v>
+        <v>34</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>34</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>0</v>
@@ -2835,10 +2853,10 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>33</v>
+        <v>35</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>35</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>0</v>
@@ -2855,10 +2873,10 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>34</v>
+        <v>36</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>36</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>0</v>
@@ -2875,10 +2893,10 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>35</v>
+        <v>37</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>37</v>
       </c>
       <c r="C18" s="0" t="n">
         <v>0</v>
@@ -2895,10 +2913,10 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>36</v>
+        <v>38</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>38</v>
       </c>
       <c r="C19" s="0" t="n">
         <v>0</v>
@@ -2915,10 +2933,10 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>39</v>
       </c>
       <c r="C20" s="0" t="n">
         <v>0</v>
@@ -2935,10 +2953,10 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>38</v>
+        <v>40</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>40</v>
       </c>
       <c r="C21" s="0" t="n">
         <v>0</v>
@@ -2956,7 +2974,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -2971,38 +2989,38 @@
   </sheetPr>
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B2" activeCellId="1" sqref="A5:B5 B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>41</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>0</v>
@@ -3013,10 +3031,10 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>40</v>
+        <v>42</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>42</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>0</v>
@@ -3027,10 +3045,10 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>41</v>
+        <v>43</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>43</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>0</v>
@@ -3041,10 +3059,10 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>42</v>
+        <v>44</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>44</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>0</v>
@@ -3055,10 +3073,10 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>43</v>
+        <v>45</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>45</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>0</v>
@@ -3069,10 +3087,10 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>44</v>
+        <v>46</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>46</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>0</v>
@@ -3083,10 +3101,10 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>47</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>0</v>
@@ -3097,10 +3115,10 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>48</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>0</v>
@@ -3111,10 +3129,10 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>49</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>0</v>
@@ -3125,10 +3143,10 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>48</v>
+        <v>50</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>50</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>0</v>
@@ -3139,10 +3157,10 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>51</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>0</v>
@@ -3153,10 +3171,10 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>50</v>
+        <v>52</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>52</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>0</v>
@@ -3167,10 +3185,10 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>51</v>
+        <v>53</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>53</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>0</v>
@@ -3182,7 +3200,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -3197,89 +3215,89 @@
   </sheetPr>
   <dimension ref="A2:A15"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="A5:B5 A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -3294,124 +3312,124 @@
   </sheetPr>
   <dimension ref="A2:A22"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="A5:B5 A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -3426,124 +3444,124 @@
   </sheetPr>
   <dimension ref="A2:A22"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="A5:B5 A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -3558,29 +3576,29 @@
   </sheetPr>
   <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="A5:B5 A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>-60</v>
@@ -3591,7 +3609,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>-37.2</v>
@@ -3602,7 +3620,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>-50</v>
@@ -3613,7 +3631,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>-23.24</v>
@@ -3624,7 +3642,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>-43.2</v>
@@ -3635,7 +3653,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>-24.6</v>
@@ -3646,7 +3664,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>-40</v>
@@ -3657,7 +3675,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>-10</v>
@@ -3668,7 +3686,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>-30</v>
@@ -3679,7 +3697,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>-10</v>
@@ -3690,7 +3708,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>-10</v>
@@ -3701,7 +3719,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>-10</v>
@@ -3712,7 +3730,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>-10</v>
@@ -3724,7 +3742,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -3739,29 +3757,29 @@
   </sheetPr>
   <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H13" activeCellId="0" sqref="H13"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H13" activeCellId="1" sqref="A5:B5 H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>1.65155467201437E-005</v>
@@ -3772,7 +3790,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>1E-012</v>
@@ -3783,7 +3801,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>1E-012</v>
@@ -3794,7 +3812,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>1E-012</v>
@@ -3805,7 +3823,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>1E-012</v>
@@ -3816,7 +3834,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>0.00161010544336061</v>
@@ -3827,7 +3845,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0.0018583615823201</v>
@@ -3838,7 +3856,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0.00102168275785283</v>
@@ -3849,7 +3867,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0.0171065051554435</v>
@@ -3860,7 +3878,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0.00285146987847134</v>
@@ -3871,7 +3889,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>1E-012</v>
@@ -3882,7 +3900,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0.0013710175574537</v>
@@ -3893,7 +3911,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>1E-012</v>
@@ -3904,7 +3922,7 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>1E-012</v>
@@ -3915,7 +3933,7 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>1.37459615540709E-005</v>
@@ -3926,7 +3944,7 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>1E-012</v>
@@ -3937,7 +3955,7 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>1E-012</v>
@@ -3948,7 +3966,7 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>6.69219105835325E-006</v>
@@ -3959,7 +3977,7 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>0.00351539405111918</v>
@@ -3970,7 +3988,7 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>0.000588959799304437</v>
@@ -3982,7 +4000,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>

--- a/matlab_code/tests/ensembleFxns/testFiles/toy_model1_coef.xlsx
+++ b/matlab_code/tests/ensembleFxns/testFiles/toy_model1_coef.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="104">
   <si>
     <t xml:space="preserve">General Reaction and Sampling Platform (GRASP)</t>
   </si>
@@ -46,13 +46,13 @@
     <t xml:space="preserve">toy_model1</t>
   </si>
   <si>
-    <t xml:space="preserve">Sampling mode (ORACLE, rejection, rejectionSMC, SMC, MCMC-SMC)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ORACLE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NLP solver (NLOPT, OPTI, FMINCON (default))</t>
+    <t xml:space="preserve">Sampling mode (GRASP or rejection)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GRASP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NLP solver (NLOPT or FMINCON (default))</t>
   </si>
   <si>
     <t xml:space="preserve">FMINCON</t>
@@ -79,18 +79,9 @@
     <t xml:space="preserve">Number of cores (ignored if Parallel mode disabled)</t>
   </si>
   <si>
-    <t xml:space="preserve">Percentile of alive particles for SMC (e.g., 20, 50, etc.) (only needed for rejectionSMC, SMC, MCMC-SMC)</t>
-  </si>
-  <si>
     <t xml:space="preserve">Compute robust fluxes (ON = 1; OFF = 0)</t>
   </si>
   <si>
-    <t xml:space="preserve">Compute thermodynamics (ON = 1; OFF = 0)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Inicial tolerance (OPTIONAL)</t>
-  </si>
-  <si>
     <t xml:space="preserve">Final tolerance (in the case of ORACLE, set to 1)</t>
   </si>
   <si>
@@ -205,12 +196,6 @@
     <t xml:space="preserve">balanced?</t>
   </si>
   <si>
-    <t xml:space="preserve">active?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fixed?</t>
-  </si>
-  <si>
     <t xml:space="preserve">measured?</t>
   </si>
   <si>
@@ -218,9 +203,6 @@
   </si>
   <si>
     <t xml:space="preserve">transportRxn?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">modelled?</t>
   </si>
   <si>
     <t xml:space="preserve">isoenzymes</t>
@@ -498,15 +480,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5:B5"/>
+      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="2" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -517,24 +500,24 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="0" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="0" t="s">
@@ -593,6 +576,9 @@
       <c r="A11" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="B11" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
@@ -602,27 +588,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B15" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -642,7 +610,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1" activeCellId="1" sqref="A5:B5 D1"/>
+      <selection pane="topLeft" activeCell="D1" activeCellId="1" sqref="B3 D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -652,18 +620,18 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>-22.0149320730417</v>
@@ -674,7 +642,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0.285369137837419</v>
@@ -685,7 +653,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0.0578197638950879</v>
@@ -696,7 +664,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>-0.00439408376660814</v>
@@ -707,7 +675,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>6.84865633256387</v>
@@ -718,7 +686,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>-0.00242684925806694</v>
@@ -746,7 +714,7 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="A5:B5 A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="B3 A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -756,21 +724,21 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>0.938745891927311</v>
@@ -784,7 +752,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0.918129270809538</v>
@@ -798,7 +766,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0.979330692978098</v>
@@ -812,7 +780,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0.870960152966783</v>
@@ -826,7 +794,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>0.99</v>
@@ -840,7 +808,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>0.99</v>
@@ -854,7 +822,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0.99</v>
@@ -868,7 +836,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0.99</v>
@@ -882,7 +850,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0.99</v>
@@ -896,7 +864,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0.99</v>
@@ -910,7 +878,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>0.99</v>
@@ -924,7 +892,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0.99</v>
@@ -938,7 +906,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>0.99</v>
@@ -969,7 +937,7 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="A5:B5 A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="B3 A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -979,21 +947,21 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>0.729362608113343</v>
@@ -1007,7 +975,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0.99</v>
@@ -1021,7 +989,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0.99</v>
@@ -1035,7 +1003,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0.99</v>
@@ -1049,7 +1017,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>0</v>
@@ -1063,7 +1031,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>0.985171462369796</v>
@@ -1077,7 +1045,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0.875198318353468</v>
@@ -1091,7 +1059,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0.992232956019871</v>
@@ -1105,7 +1073,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0.87219768970854</v>
@@ -1119,7 +1087,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0.997064475108798</v>
@@ -1133,7 +1101,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>0</v>
@@ -1147,7 +1115,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0.935839477601494</v>
@@ -1161,7 +1129,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>0.99</v>
@@ -1175,7 +1143,7 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>0.99</v>
@@ -1189,7 +1157,7 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>0.864112211147392</v>
@@ -1203,7 +1171,7 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>0.99</v>
@@ -1217,7 +1185,7 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>0.99</v>
@@ -1231,7 +1199,7 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>0.980827889050257</v>
@@ -1245,7 +1213,7 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>0.983205843276524</v>
@@ -1259,7 +1227,7 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>0.986809036820528</v>
@@ -1290,13 +1258,13 @@
   <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C8" activeCellId="1" sqref="A5:B5 C8"/>
+      <selection pane="topLeft" activeCell="C8" activeCellId="1" sqref="B3 C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="31.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="31.62"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="43.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="42.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="33.1"/>
@@ -1306,57 +1274,57 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="J1" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>84</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="J2" s="0" t="n">
         <v>0</v>
@@ -1367,19 +1335,19 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="J3" s="0" t="n">
         <v>0</v>
@@ -1390,22 +1358,22 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="J4" s="0" t="n">
         <v>0</v>
@@ -1416,16 +1384,16 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="J5" s="0" t="n">
         <v>0</v>
@@ -1436,19 +1404,19 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="J6" s="0" t="n">
         <v>0</v>
@@ -1459,22 +1427,22 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="J7" s="0" t="n">
         <v>0</v>
@@ -1485,16 +1453,16 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="J8" s="0" t="n">
         <v>0</v>
@@ -1505,10 +1473,10 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="J9" s="0" t="n">
         <v>0</v>
@@ -1519,10 +1487,10 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="J10" s="0" t="n">
         <v>0</v>
@@ -1533,10 +1501,10 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="J11" s="0" t="n">
         <v>0</v>
@@ -1547,10 +1515,10 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="J12" s="0" t="n">
         <v>0</v>
@@ -1561,10 +1529,10 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="J13" s="0" t="n">
         <v>0</v>
@@ -1575,10 +1543,10 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="J14" s="0" t="n">
         <v>0</v>
@@ -1606,7 +1574,7 @@
   <dimension ref="A1:U14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G8" activeCellId="1" sqref="A5:B5 G8"/>
+      <selection pane="topLeft" activeCell="G8" activeCellId="1" sqref="B3 G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1616,72 +1584,72 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>0</v>
@@ -1746,7 +1714,7 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0</v>
@@ -1811,7 +1779,7 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>-1</v>
@@ -1876,7 +1844,7 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0</v>
@@ -1941,7 +1909,7 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>0</v>
@@ -2006,7 +1974,7 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>-1</v>
@@ -2071,7 +2039,7 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0</v>
@@ -2136,7 +2104,7 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0</v>
@@ -2201,7 +2169,7 @@
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0</v>
@@ -2266,7 +2234,7 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0</v>
@@ -2331,7 +2299,7 @@
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>0</v>
@@ -2396,7 +2364,7 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0</v>
@@ -2461,7 +2429,7 @@
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>0</v>
@@ -2540,434 +2508,309 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D17" activeCellId="1" sqref="A5:B5 D17"/>
+      <selection pane="topLeft" activeCell="D1" activeCellId="1" sqref="B3 D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1022" min="1" style="0" width="8.57"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1023" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>54</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F2" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D3" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E3" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F3" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D4" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E4" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F4" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D5" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E5" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F5" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E6" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D7" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D8" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E8" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D9" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E9" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D10" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E10" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D11" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E11" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D12" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E12" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D13" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E13" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F13" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D14" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E14" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F14" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D15" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E15" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F15" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D16" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E16" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F16" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D17" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E17" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F17" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C18" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D18" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E18" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F18" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C19" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D19" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E19" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F19" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C20" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D20" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E20" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F20" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C21" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D21" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E21" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F21" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2987,214 +2830,173 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="1" sqref="A5:B5 B2"/>
+      <selection pane="topLeft" activeCell="D1" activeCellId="1" sqref="B3 D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1023" min="1" style="0" width="8.57"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1024" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>63</v>
+        <v>56</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D2" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D3" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D4" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D5" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D6" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D7" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D8" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D9" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D10" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D11" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D12" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D13" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D14" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -3216,7 +3018,7 @@
   <dimension ref="A2:A15"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="A5:B5 A3"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="B3 A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3226,72 +3028,72 @@
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -3313,7 +3115,7 @@
   <dimension ref="A2:A22"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="A5:B5 A3"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="B3 A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3323,107 +3125,107 @@
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -3445,7 +3247,7 @@
   <dimension ref="A2:A22"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="A5:B5 A3"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="B3 A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3455,107 +3257,107 @@
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -3577,7 +3379,7 @@
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="A5:B5 A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="B3 A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3587,18 +3389,18 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>-60</v>
@@ -3609,7 +3411,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>-37.2</v>
@@ -3620,7 +3422,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>-50</v>
@@ -3631,7 +3433,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>-23.24</v>
@@ -3642,7 +3444,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>-43.2</v>
@@ -3653,7 +3455,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>-24.6</v>
@@ -3664,7 +3466,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>-40</v>
@@ -3675,7 +3477,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>-10</v>
@@ -3686,7 +3488,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>-30</v>
@@ -3697,7 +3499,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>-10</v>
@@ -3708,7 +3510,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>-10</v>
@@ -3719,7 +3521,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>-10</v>
@@ -3730,7 +3532,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>-10</v>
@@ -3758,7 +3560,7 @@
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H13" activeCellId="1" sqref="A5:B5 H13"/>
+      <selection pane="topLeft" activeCell="H13" activeCellId="1" sqref="B3 H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3768,18 +3570,18 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>1.65155467201437E-005</v>
@@ -3790,7 +3592,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>1E-012</v>
@@ -3801,7 +3603,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>1E-012</v>
@@ -3812,7 +3614,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>1E-012</v>
@@ -3823,7 +3625,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>1E-012</v>
@@ -3834,7 +3636,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>0.00161010544336061</v>
@@ -3845,7 +3647,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0.0018583615823201</v>
@@ -3856,7 +3658,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0.00102168275785283</v>
@@ -3867,7 +3669,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0.0171065051554435</v>
@@ -3878,7 +3680,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0.00285146987847134</v>
@@ -3889,7 +3691,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>1E-012</v>
@@ -3900,7 +3702,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0.0013710175574537</v>
@@ -3911,7 +3713,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>1E-012</v>
@@ -3922,7 +3724,7 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>1E-012</v>
@@ -3933,7 +3735,7 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>1.37459615540709E-005</v>
@@ -3944,7 +3746,7 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>1E-012</v>
@@ -3955,7 +3757,7 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>1E-012</v>
@@ -3966,7 +3768,7 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>6.69219105835325E-006</v>
@@ -3977,7 +3779,7 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>0.00351539405111918</v>
@@ -3988,7 +3790,7 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>0.000588959799304437</v>

--- a/matlab_code/tests/ensembleFxns/testFiles/toy_model1_coef.xlsx
+++ b/matlab_code/tests/ensembleFxns/testFiles/toy_model1_coef.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="general" sheetId="1" state="visible" r:id="rId2"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="103">
   <si>
     <t xml:space="preserve">General Reaction and Sampling Platform (GRASP)</t>
   </si>
@@ -194,9 +194,6 @@
   </si>
   <si>
     <t xml:space="preserve">balanced?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">measured?</t>
   </si>
   <si>
     <t xml:space="preserve">reaction name</t>
@@ -447,12 +444,12 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -482,7 +479,7 @@
   </sheetPr>
   <dimension ref="A1:B1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -610,7 +607,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1" activeCellId="1" sqref="B3 D1"/>
+      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -620,13 +617,13 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>65</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -714,7 +711,7 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="B3 A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -724,16 +721,16 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>69</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -937,7 +934,7 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="B3 A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -947,16 +944,16 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>71</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1258,7 +1255,7 @@
   <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C8" activeCellId="1" sqref="B3 C8"/>
+      <selection pane="topLeft" activeCell="C8" activeCellId="0" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1274,40 +1271,40 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="E1" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>83</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1315,13 +1312,13 @@
         <v>38</v>
       </c>
       <c r="B2" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="C2" s="0" t="s">
         <v>85</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="D2" s="0" t="s">
         <v>86</v>
-      </c>
-      <c r="D2" s="0" t="s">
-        <v>87</v>
       </c>
       <c r="F2" s="0" t="s">
         <v>23</v>
@@ -1338,16 +1335,16 @@
         <v>39</v>
       </c>
       <c r="B3" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="C3" s="0" t="s">
         <v>88</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="D3" s="0" t="s">
         <v>89</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="E3" s="0" t="s">
         <v>90</v>
-      </c>
-      <c r="E3" s="0" t="s">
-        <v>91</v>
       </c>
       <c r="J3" s="0" t="n">
         <v>0</v>
@@ -1361,16 +1358,16 @@
         <v>40</v>
       </c>
       <c r="B4" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="C4" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="D4" s="0" t="s">
         <v>93</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="E4" s="0" t="s">
         <v>94</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>95</v>
       </c>
       <c r="F4" s="0" t="s">
         <v>26</v>
@@ -1387,13 +1384,13 @@
         <v>41</v>
       </c>
       <c r="B5" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="C5" s="0" t="s">
         <v>96</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="D5" s="6" t="s">
         <v>97</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>98</v>
       </c>
       <c r="J5" s="0" t="n">
         <v>0</v>
@@ -1407,16 +1404,16 @@
         <v>42</v>
       </c>
       <c r="B6" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="C6" s="0" t="s">
         <v>88</v>
       </c>
-      <c r="C6" s="0" t="s">
+      <c r="D6" s="0" t="s">
         <v>89</v>
       </c>
-      <c r="D6" s="0" t="s">
+      <c r="E6" s="0" t="s">
         <v>90</v>
-      </c>
-      <c r="E6" s="0" t="s">
-        <v>91</v>
       </c>
       <c r="J6" s="0" t="n">
         <v>0</v>
@@ -1430,16 +1427,16 @@
         <v>43</v>
       </c>
       <c r="B7" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="C7" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="C7" s="0" t="s">
+      <c r="D7" s="0" t="s">
         <v>93</v>
       </c>
-      <c r="D7" s="0" t="s">
+      <c r="E7" s="0" t="s">
         <v>94</v>
-      </c>
-      <c r="E7" s="0" t="s">
-        <v>95</v>
       </c>
       <c r="F7" s="0" t="s">
         <v>26</v>
@@ -1456,13 +1453,13 @@
         <v>44</v>
       </c>
       <c r="B8" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="C8" s="0" t="s">
         <v>99</v>
       </c>
-      <c r="C8" s="0" t="s">
+      <c r="D8" s="0" t="s">
         <v>100</v>
-      </c>
-      <c r="D8" s="0" t="s">
-        <v>101</v>
       </c>
       <c r="J8" s="0" t="n">
         <v>0</v>
@@ -1476,7 +1473,7 @@
         <v>45</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J9" s="0" t="n">
         <v>0</v>
@@ -1490,7 +1487,7 @@
         <v>46</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J10" s="0" t="n">
         <v>0</v>
@@ -1504,7 +1501,7 @@
         <v>47</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J11" s="0" t="n">
         <v>0</v>
@@ -1518,7 +1515,7 @@
         <v>48</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J12" s="0" t="n">
         <v>0</v>
@@ -1532,7 +1529,7 @@
         <v>49</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J13" s="0" t="n">
         <v>0</v>
@@ -1546,7 +1543,7 @@
         <v>50</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J14" s="0" t="n">
         <v>0</v>
@@ -1574,7 +1571,7 @@
   <dimension ref="A1:U14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G8" activeCellId="1" sqref="B3 G8"/>
+      <selection pane="topLeft" activeCell="G8" activeCellId="0" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2508,16 +2505,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1" activeCellId="1" sqref="B3 D1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1022" min="1" style="0" width="8.57"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1023" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1021" min="1" style="0" width="8.57"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1022" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2530,21 +2527,15 @@
       <c r="C1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>54</v>
-      </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>18</v>
       </c>
       <c r="C2" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2552,13 +2543,10 @@
       <c r="A3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>19</v>
       </c>
       <c r="C3" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D3" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2566,13 +2554,10 @@
       <c r="A4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>20</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2580,13 +2565,10 @@
       <c r="A5" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>21</v>
       </c>
       <c r="C5" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D5" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2594,111 +2576,87 @@
       <c r="A6" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="3" t="s">
         <v>22</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>1</v>
-      </c>
-      <c r="D6" s="0" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="3" t="s">
         <v>23</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>1</v>
-      </c>
-      <c r="D7" s="0" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="3" t="s">
         <v>24</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>1</v>
-      </c>
-      <c r="D8" s="0" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="3" t="s">
         <v>25</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>1</v>
-      </c>
-      <c r="D9" s="0" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="3" t="s">
         <v>26</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>1</v>
-      </c>
-      <c r="D10" s="0" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="3" t="s">
         <v>27</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>1</v>
-      </c>
-      <c r="D11" s="0" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="3" t="s">
         <v>28</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>1</v>
-      </c>
-      <c r="D12" s="0" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="3" t="s">
         <v>29</v>
       </c>
       <c r="C13" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D13" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2706,13 +2664,10 @@
       <c r="A14" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="3" t="s">
         <v>30</v>
       </c>
       <c r="C14" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D14" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2720,13 +2675,10 @@
       <c r="A15" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="3" t="s">
         <v>31</v>
       </c>
       <c r="C15" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D15" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2734,13 +2686,10 @@
       <c r="A16" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="3" t="s">
         <v>32</v>
       </c>
       <c r="C16" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D16" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2748,13 +2697,10 @@
       <c r="A17" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="3" t="s">
         <v>33</v>
       </c>
       <c r="C17" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D17" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2762,13 +2708,10 @@
       <c r="A18" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="3" t="s">
         <v>34</v>
       </c>
       <c r="C18" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D18" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2776,13 +2719,10 @@
       <c r="A19" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="3" t="s">
         <v>35</v>
       </c>
       <c r="C19" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D19" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2790,13 +2730,10 @@
       <c r="A20" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="3" t="s">
         <v>36</v>
       </c>
       <c r="C20" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D20" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2804,13 +2741,10 @@
       <c r="A21" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="3" t="s">
         <v>37</v>
       </c>
       <c r="C21" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D21" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2833,7 +2767,7 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1" activeCellId="1" sqref="B3 D1"/>
+      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2847,20 +2781,20 @@
         <v>51</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="4" t="s">
         <v>56</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>38</v>
       </c>
       <c r="C2" s="0" t="n">
@@ -2871,7 +2805,7 @@
       <c r="A3" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>39</v>
       </c>
       <c r="C3" s="0" t="n">
@@ -2882,7 +2816,7 @@
       <c r="A4" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>40</v>
       </c>
       <c r="C4" s="0" t="n">
@@ -2893,7 +2827,7 @@
       <c r="A5" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>41</v>
       </c>
       <c r="C5" s="0" t="n">
@@ -2904,7 +2838,7 @@
       <c r="A6" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="3" t="s">
         <v>42</v>
       </c>
       <c r="C6" s="0" t="n">
@@ -2915,7 +2849,7 @@
       <c r="A7" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="3" t="s">
         <v>43</v>
       </c>
       <c r="C7" s="0" t="n">
@@ -2926,7 +2860,7 @@
       <c r="A8" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="3" t="s">
         <v>44</v>
       </c>
       <c r="C8" s="0" t="n">
@@ -2937,7 +2871,7 @@
       <c r="A9" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="3" t="s">
         <v>45</v>
       </c>
       <c r="C9" s="0" t="n">
@@ -2948,7 +2882,7 @@
       <c r="A10" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="3" t="s">
         <v>46</v>
       </c>
       <c r="C10" s="0" t="n">
@@ -2959,7 +2893,7 @@
       <c r="A11" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="3" t="s">
         <v>47</v>
       </c>
       <c r="C11" s="0" t="n">
@@ -2970,7 +2904,7 @@
       <c r="A12" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="3" t="s">
         <v>48</v>
       </c>
       <c r="C12" s="0" t="n">
@@ -2981,7 +2915,7 @@
       <c r="A13" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="3" t="s">
         <v>49</v>
       </c>
       <c r="C13" s="0" t="n">
@@ -2992,7 +2926,7 @@
       <c r="A14" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="3" t="s">
         <v>50</v>
       </c>
       <c r="C14" s="0" t="n">
@@ -3018,7 +2952,7 @@
   <dimension ref="A2:A15"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="B3 A3"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3115,7 +3049,7 @@
   <dimension ref="A2:A22"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="B3 A3"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3125,7 +3059,7 @@
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3247,7 +3181,7 @@
   <dimension ref="A2:A22"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="B3 A3"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3257,7 +3191,7 @@
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3379,7 +3313,7 @@
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="B3 A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3389,13 +3323,13 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3560,7 +3494,7 @@
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H13" activeCellId="1" sqref="B3 H13"/>
+      <selection pane="topLeft" activeCell="H13" activeCellId="0" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3570,13 +3504,13 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>62</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/matlab_code/tests/ensembleFxns/testFiles/toy_model1_coef.xlsx
+++ b/matlab_code/tests/ensembleFxns/testFiles/toy_model1_coef.xlsx
@@ -5,22 +5,21 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="general" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="stoic" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="mets" sheetId="3" state="visible" r:id="rId4"/>
     <sheet name="rxns" sheetId="4" state="visible" r:id="rId5"/>
-    <sheet name="splitRatios" sheetId="5" state="visible" r:id="rId6"/>
-    <sheet name="poolConst" sheetId="6" state="visible" r:id="rId7"/>
-    <sheet name="thermo_ineq_constraints" sheetId="7" state="visible" r:id="rId8"/>
-    <sheet name="thermoRxns" sheetId="8" state="visible" r:id="rId9"/>
-    <sheet name="thermoMets" sheetId="9" state="visible" r:id="rId10"/>
-    <sheet name="measRates" sheetId="10" state="visible" r:id="rId11"/>
-    <sheet name="protData" sheetId="11" state="visible" r:id="rId12"/>
-    <sheet name="metsData" sheetId="12" state="visible" r:id="rId13"/>
-    <sheet name="kinetics1" sheetId="13" state="visible" r:id="rId14"/>
+    <sheet name="poolConst" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="thermo_ineq_constraints" sheetId="6" state="visible" r:id="rId7"/>
+    <sheet name="thermoRxns" sheetId="7" state="visible" r:id="rId8"/>
+    <sheet name="thermoMets" sheetId="8" state="visible" r:id="rId9"/>
+    <sheet name="measRates" sheetId="9" state="visible" r:id="rId10"/>
+    <sheet name="protData" sheetId="10" state="visible" r:id="rId11"/>
+    <sheet name="metsData" sheetId="11" state="visible" r:id="rId12"/>
+    <sheet name="kinetics1" sheetId="12" state="visible" r:id="rId13"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -32,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="103">
   <si>
     <t xml:space="preserve">General Reaction and Sampling Platform (GRASP)</t>
   </si>
@@ -604,110 +603,6 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B2" s="0" t="n">
-        <v>-22.0149320730417</v>
-      </c>
-      <c r="C2" s="0" t="n">
-        <v>1.10350536706976</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B3" s="0" t="n">
-        <v>0.285369137837419</v>
-      </c>
-      <c r="C3" s="0" t="n">
-        <v>2.12397436954052E-007</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B4" s="0" t="n">
-        <v>0.0578197638950879</v>
-      </c>
-      <c r="C4" s="0" t="n">
-        <v>3.18755368558865E-009</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B5" s="0" t="n">
-        <v>-0.00439408376660814</v>
-      </c>
-      <c r="C5" s="0" t="n">
-        <v>3.33787220043099E-011</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B6" s="0" t="n">
-        <v>6.84865633256387</v>
-      </c>
-      <c r="C6" s="0" t="n">
-        <v>2.00430304742416E-005</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B7" s="0" t="n">
-        <v>-0.00242684925806694</v>
-      </c>
-      <c r="C7" s="0" t="n">
-        <v>6.60284204552005E-011</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
@@ -926,7 +821,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -1247,7 +1142,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -2507,7 +2402,7 @@
   </sheetPr>
   <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
@@ -2949,9 +2844,9 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A2:A15"/>
+  <dimension ref="A2:A22"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -2962,72 +2857,107 @@
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>47</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>48</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>49</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>50</v>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="1" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -3178,138 +3108,6 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A2:A22"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
-  </cols>
-  <sheetData>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
@@ -3486,7 +3284,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -3742,4 +3540,108 @@
     <oddFooter/>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>-22.0149320730417</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>1.10350536706976</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>0.285369137837419</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>2.12397436954052E-007</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>0.0578197638950879</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>3.18755368558865E-009</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>-0.00439408376660814</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>3.33787220043099E-011</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>6.84865633256387</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>2.00430304742416E-005</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>-0.00242684925806694</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>6.60284204552005E-011</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+</worksheet>
 </file>
--- a/matlab_code/tests/ensembleFxns/testFiles/toy_model1_coef.xlsx
+++ b/matlab_code/tests/ensembleFxns/testFiles/toy_model1_coef.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="general" sheetId="1" state="visible" r:id="rId2"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="106">
   <si>
     <t xml:space="preserve">General Reaction and Sampling Platform (GRASP)</t>
   </si>
@@ -61,6 +61,15 @@
   </si>
   <si>
     <t xml:space="preserve">gurobi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prior distribution for fluxes (uniform or normal)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">normal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prior distribution for thermodynamic quantities (uniform or normal)</t>
   </si>
   <si>
     <t xml:space="preserve">Number of exp. conditions (excluding reference state)</t>
@@ -430,7 +439,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -441,6 +450,10 @@
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -478,8 +491,8 @@
   </sheetPr>
   <dimension ref="A1:B1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6:B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -528,64 +541,78 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
+      <c r="B6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B8" s="0" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B9" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B10" s="0" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B11" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B12" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -606,7 +633,7 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="A6:B7 A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -616,21 +643,21 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>0.938745891927311</v>
@@ -644,7 +671,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0.918129270809538</v>
@@ -658,7 +685,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0.979330692978098</v>
@@ -672,7 +699,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0.870960152966783</v>
@@ -686,7 +713,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>0.99</v>
@@ -700,7 +727,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>0.99</v>
@@ -714,7 +741,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0.99</v>
@@ -728,7 +755,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0.99</v>
@@ -742,7 +769,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0.99</v>
@@ -756,7 +783,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0.99</v>
@@ -770,7 +797,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>0.99</v>
@@ -784,7 +811,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0.99</v>
@@ -798,7 +825,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>0.99</v>
@@ -829,7 +856,7 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="A6:B7 A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -839,21 +866,21 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>0.729362608113343</v>
@@ -867,7 +894,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0.99</v>
@@ -881,7 +908,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0.99</v>
@@ -895,7 +922,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0.99</v>
@@ -909,7 +936,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>0</v>
@@ -923,7 +950,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>0.985171462369796</v>
@@ -937,7 +964,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0.875198318353468</v>
@@ -951,7 +978,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0.992232956019871</v>
@@ -965,7 +992,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0.87219768970854</v>
@@ -979,7 +1006,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0.997064475108798</v>
@@ -993,7 +1020,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>0</v>
@@ -1007,7 +1034,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0.935839477601494</v>
@@ -1021,7 +1048,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>0.99</v>
@@ -1035,7 +1062,7 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>0.99</v>
@@ -1049,7 +1076,7 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>0.864112211147392</v>
@@ -1063,7 +1090,7 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>0.99</v>
@@ -1077,7 +1104,7 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>0.99</v>
@@ -1091,7 +1118,7 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>0.980827889050257</v>
@@ -1105,7 +1132,7 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>0.983205843276524</v>
@@ -1119,7 +1146,7 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>0.986809036820528</v>
@@ -1150,7 +1177,7 @@
   <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C8" activeCellId="0" sqref="C8"/>
+      <selection pane="topLeft" activeCell="C8" activeCellId="1" sqref="A6:B7 C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1166,57 +1193,57 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>75</v>
+        <v>77</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>78</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="J2" s="0" t="n">
         <v>0</v>
@@ -1227,19 +1254,19 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="J3" s="0" t="n">
         <v>0</v>
@@ -1250,22 +1277,22 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="J4" s="0" t="n">
         <v>0</v>
@@ -1276,16 +1303,16 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>96</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>97</v>
+        <v>99</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>100</v>
       </c>
       <c r="J5" s="0" t="n">
         <v>0</v>
@@ -1296,19 +1323,19 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="J6" s="0" t="n">
         <v>0</v>
@@ -1319,22 +1346,22 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="J7" s="0" t="n">
         <v>0</v>
@@ -1345,16 +1372,16 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="J8" s="0" t="n">
         <v>0</v>
@@ -1365,10 +1392,10 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="J9" s="0" t="n">
         <v>0</v>
@@ -1379,10 +1406,10 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="J10" s="0" t="n">
         <v>0</v>
@@ -1393,10 +1420,10 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="J11" s="0" t="n">
         <v>0</v>
@@ -1407,10 +1434,10 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="J12" s="0" t="n">
         <v>0</v>
@@ -1421,10 +1448,10 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="J13" s="0" t="n">
         <v>0</v>
@@ -1435,10 +1462,10 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="J14" s="0" t="n">
         <v>0</v>
@@ -1466,7 +1493,7 @@
   <dimension ref="A1:U14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G8" activeCellId="0" sqref="G8"/>
+      <selection pane="topLeft" activeCell="G8" activeCellId="1" sqref="A6:B7 G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1476,72 +1503,72 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>0</v>
@@ -1606,7 +1633,7 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0</v>
@@ -1671,7 +1698,7 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>-1</v>
@@ -1736,7 +1763,7 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0</v>
@@ -1801,7 +1828,7 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>0</v>
@@ -1866,7 +1893,7 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>-1</v>
@@ -1931,7 +1958,7 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0</v>
@@ -1996,7 +2023,7 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0</v>
@@ -2061,7 +2088,7 @@
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0</v>
@@ -2126,7 +2153,7 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0</v>
@@ -2191,7 +2218,7 @@
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>0</v>
@@ -2256,7 +2283,7 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0</v>
@@ -2321,7 +2348,7 @@
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>0</v>
@@ -2403,7 +2430,7 @@
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
+      <selection pane="topLeft" activeCell="D1" activeCellId="1" sqref="A6:B7 D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2414,21 +2441,21 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>18</v>
+        <v>21</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>0</v>
@@ -2436,10 +2463,10 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>19</v>
+        <v>22</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>22</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>0</v>
@@ -2447,10 +2474,10 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>20</v>
+        <v>23</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>23</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>0</v>
@@ -2458,10 +2485,10 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>21</v>
+        <v>24</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>24</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>0</v>
@@ -2469,10 +2496,10 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>22</v>
+        <v>25</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>25</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>1</v>
@@ -2480,10 +2507,10 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>23</v>
+        <v>26</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>26</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>1</v>
@@ -2491,10 +2518,10 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>24</v>
+        <v>27</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>27</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>1</v>
@@ -2502,10 +2529,10 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>25</v>
+        <v>28</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>28</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>1</v>
@@ -2513,10 +2540,10 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>26</v>
+        <v>29</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>29</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>1</v>
@@ -2524,10 +2551,10 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>30</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>1</v>
@@ -2535,10 +2562,10 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>28</v>
+        <v>31</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>31</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>1</v>
@@ -2546,10 +2573,10 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>29</v>
+        <v>32</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>32</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>0</v>
@@ -2557,10 +2584,10 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>30</v>
+        <v>33</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>33</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>0</v>
@@ -2568,10 +2595,10 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>31</v>
+        <v>34</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>34</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>0</v>
@@ -2579,10 +2606,10 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>32</v>
+        <v>35</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>35</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>0</v>
@@ -2590,10 +2617,10 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>33</v>
+        <v>36</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>36</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>0</v>
@@ -2601,10 +2628,10 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>34</v>
+        <v>37</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>37</v>
       </c>
       <c r="C18" s="0" t="n">
         <v>0</v>
@@ -2612,10 +2639,10 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>35</v>
+        <v>38</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>38</v>
       </c>
       <c r="C19" s="0" t="n">
         <v>0</v>
@@ -2623,10 +2650,10 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>36</v>
+        <v>39</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>39</v>
       </c>
       <c r="C20" s="0" t="n">
         <v>0</v>
@@ -2634,10 +2661,10 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>37</v>
+        <v>40</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>40</v>
       </c>
       <c r="C21" s="0" t="n">
         <v>0</v>
@@ -2662,7 +2689,7 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
+      <selection pane="topLeft" activeCell="D1" activeCellId="1" sqref="A6:B7 D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2673,24 +2700,24 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>56</v>
+        <v>58</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>38</v>
+        <v>41</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>41</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>0</v>
@@ -2698,10 +2725,10 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>39</v>
+        <v>42</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>42</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>0</v>
@@ -2709,10 +2736,10 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>40</v>
+        <v>43</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>43</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>0</v>
@@ -2720,10 +2747,10 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>41</v>
+        <v>44</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>44</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>0</v>
@@ -2731,10 +2758,10 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>42</v>
+        <v>45</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>45</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>0</v>
@@ -2742,10 +2769,10 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>43</v>
+        <v>46</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>46</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>0</v>
@@ -2753,10 +2780,10 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>44</v>
+        <v>47</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>47</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>0</v>
@@ -2764,10 +2791,10 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>45</v>
+        <v>48</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>48</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>0</v>
@@ -2775,10 +2802,10 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>46</v>
+        <v>49</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>49</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>0</v>
@@ -2786,10 +2813,10 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>47</v>
+        <v>50</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>50</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>0</v>
@@ -2797,10 +2824,10 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>48</v>
+        <v>51</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>51</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>0</v>
@@ -2808,10 +2835,10 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>49</v>
+        <v>52</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>52</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>0</v>
@@ -2819,10 +2846,10 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>50</v>
+        <v>53</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>53</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>0</v>
@@ -2846,8 +2873,8 @@
   </sheetPr>
   <dimension ref="A2:A22"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="A6:B7 A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2857,107 +2884,107 @@
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -2979,7 +3006,7 @@
   <dimension ref="A2:A22"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="A6:B7 A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2989,107 +3016,107 @@
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -3111,7 +3138,7 @@
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="A6:B7 A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3121,18 +3148,18 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>-60</v>
@@ -3143,7 +3170,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>-37.2</v>
@@ -3154,7 +3181,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>-50</v>
@@ -3165,7 +3192,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>-23.24</v>
@@ -3176,7 +3203,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>-43.2</v>
@@ -3187,7 +3214,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>-24.6</v>
@@ -3198,7 +3225,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>-40</v>
@@ -3209,7 +3236,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>-10</v>
@@ -3220,7 +3247,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>-30</v>
@@ -3231,7 +3258,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>-10</v>
@@ -3242,7 +3269,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>-10</v>
@@ -3253,7 +3280,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>-10</v>
@@ -3264,7 +3291,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>-10</v>
@@ -3292,7 +3319,7 @@
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H13" activeCellId="0" sqref="H13"/>
+      <selection pane="topLeft" activeCell="H13" activeCellId="1" sqref="A6:B7 H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3302,18 +3329,18 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>1.65155467201437E-005</v>
@@ -3324,7 +3351,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>1E-012</v>
@@ -3335,7 +3362,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>1E-012</v>
@@ -3346,7 +3373,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>1E-012</v>
@@ -3357,7 +3384,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>1E-012</v>
@@ -3368,7 +3395,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>0.00161010544336061</v>
@@ -3379,7 +3406,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0.0018583615823201</v>
@@ -3390,7 +3417,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0.00102168275785283</v>
@@ -3401,7 +3428,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0.0171065051554435</v>
@@ -3412,7 +3439,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0.00285146987847134</v>
@@ -3423,7 +3450,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>1E-012</v>
@@ -3434,7 +3461,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0.0013710175574537</v>
@@ -3445,7 +3472,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>1E-012</v>
@@ -3456,7 +3483,7 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>1E-012</v>
@@ -3467,7 +3494,7 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>1.37459615540709E-005</v>
@@ -3478,7 +3505,7 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>1E-012</v>
@@ -3489,7 +3516,7 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>1E-012</v>
@@ -3500,7 +3527,7 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>6.69219105835325E-006</v>
@@ -3511,7 +3538,7 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>0.00351539405111918</v>
@@ -3522,7 +3549,7 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>0.000588959799304437</v>
@@ -3550,7 +3577,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
+      <selection pane="topLeft" activeCell="D1" activeCellId="1" sqref="A6:B7 D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3560,18 +3587,18 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>-22.0149320730417</v>
@@ -3582,7 +3609,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0.285369137837419</v>
@@ -3593,7 +3620,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0.0578197638950879</v>
@@ -3604,7 +3631,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>-0.00439408376660814</v>
@@ -3615,7 +3642,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>6.84865633256387</v>
@@ -3626,7 +3653,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>-0.00242684925806694</v>
